--- a/SDGupdater/inst/testdata/Deflators-base-2020.xlsx
+++ b/SDGupdater/inst/testdata/Deflators-base-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding_repos\sdg_data_updates\SDGupdater\inst\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D3944-25DC-4C8F-BF7E-E23DE3EE6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F16CF-D2FA-40A1-B063-3A12FE5C88DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deflators" sheetId="1" r:id="rId1"/>
@@ -870,17 +870,17 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2017</v>
       </c>
@@ -897,7 +897,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
